--- a/fhir/ig/tei/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/tei/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T10:47:09-03:00</t>
+    <t>2024-02-20T17:14:58-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/tei/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T17:14:58-03:00</t>
+    <t>2023-10-18T10:47:09-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
